--- a/html/resources/aoiConditions/train2Block3Test.xlsx
+++ b/html/resources/aoiConditions/train2Block3Test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>audioTrue</t>
   </si>
@@ -34,58 +34,16 @@
     <t>falsePos</t>
   </si>
   <si>
-    <t>trainingaudio/21_papika1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/23_patoko1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/14_pokoto1.wav</t>
-  </si>
-  <si>
     <t>trainingaudio/06_titoka3.wav</t>
   </si>
   <si>
-    <t>trainingaudio/07_pitapi2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/25_tapapi1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/22_kakoki1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/19_papipi1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/01_kitipi1.wav</t>
-  </si>
-  <si>
-    <t>pngimages/21_cheese.png</t>
-  </si>
-  <si>
-    <t>pngimages/23_lemon.png</t>
-  </si>
-  <si>
-    <t>pngimages/14_coffee.png</t>
-  </si>
-  <si>
     <t>pngimages/06_tent.png</t>
   </si>
   <si>
-    <t>pngimages/07_suitcase.png</t>
-  </si>
-  <si>
-    <t>pngimages/25_apple.png</t>
-  </si>
-  <si>
-    <t>pngimages/22_egg.png</t>
-  </si>
-  <si>
-    <t>pngimages/19_burger.png</t>
-  </si>
-  <si>
-    <t>pngimages/01_gift.png</t>
+    <t>trainingaudio/09_tipata2.wav</t>
+  </si>
+  <si>
+    <t>pngimages/09_plane.png</t>
   </si>
 </sst>
 </file>
@@ -443,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -474,178 +432,18 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
       <c r="E2">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="F2">
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3">
-        <v>0.5</v>
-      </c>
-      <c r="F3">
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4">
-        <v>0.5</v>
-      </c>
-      <c r="F4">
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5">
-        <v>-0.5</v>
-      </c>
-      <c r="F5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6">
-        <v>-0.5</v>
-      </c>
-      <c r="F6">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7">
-        <v>-0.5</v>
-      </c>
-      <c r="F7">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8">
-        <v>-0.5</v>
-      </c>
-      <c r="F8">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9">
-        <v>0.5</v>
-      </c>
-      <c r="F9">
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10">
-        <v>-0.5</v>
-      </c>
-      <c r="F10">
         <v>0.5</v>
       </c>
     </row>

--- a/html/resources/aoiConditions/train2Block3Test.xlsx
+++ b/html/resources/aoiConditions/train2Block3Test.xlsx
@@ -34,10 +34,10 @@
     <t>falsePos</t>
   </si>
   <si>
-    <t>trainingaudio/06_titoka3.wav</t>
-  </si>
-  <si>
-    <t>pngimages/06_tent.png</t>
+    <t>trainingaudio/94_kipipi1.wav</t>
+  </si>
+  <si>
+    <t>pngimages/94_house.png</t>
   </si>
   <si>
     <t>trainingaudio/09_tipata2.wav</t>
